--- a/tests/testthat/data/Parameters/Individuals.xlsx
+++ b/tests/testthat/data/Parameters/Individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR.reports\example-project\CY2D6-RQ\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnastasiiaKostiv\OneDrive - esqlabs GmbH\Documents\GitHub\shinyScenarioEditor\tests\testthat\data\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F2037F-09DE-4076-BB08-381779E975B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296CF23F-FCAD-4B65-9237-9701AEE5FCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="300" windowWidth="21564" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualBiometrics" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Human</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Container Path</t>
+  </si>
+  <si>
+    <t>Protein Ontogenies</t>
   </si>
 </sst>
 </file>
@@ -415,29 +418,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.47265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="8.47265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.47265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -460,7 +463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -492,19 +495,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3892D2-FAF9-44EE-B239-FAC53541F5B5}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.68359375" style="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="17.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -516,6 +521,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -707,6 +715,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="425f6c96-429f-484f-969b-f607df711986">
@@ -715,15 +732,6 @@
     <TaxCatchAll xmlns="dffc3f26-5269-4005-8a8e-580fd4bf242e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -746,6 +754,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA0B51-7456-4883-901E-100C95177B36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028903B1-0B22-4BE6-8A73-043144867A27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -756,12 +772,4 @@
     <ds:schemaRef ds:uri="dffc3f26-5269-4005-8a8e-580fd4bf242e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA0B51-7456-4883-901E-100C95177B36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/testthat/data/Parameters/Individuals.xlsx
+++ b/tests/testthat/data/Parameters/Individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnastasiiaKostiv\OneDrive - esqlabs GmbH\Documents\GitHub\shinyScenarioEditor\tests\testthat\data\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296CF23F-FCAD-4B65-9237-9701AEE5FCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FECD1B-C6E9-4876-B2B5-36E08FEFF4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="300" windowWidth="21564" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Human</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Container Path</t>
-  </si>
-  <si>
-    <t>Protein Ontogenies</t>
   </si>
 </sst>
 </file>
@@ -495,10 +492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3892D2-FAF9-44EE-B239-FAC53541F5B5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +506,7 @@
     <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -521,9 +518,6 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -715,15 +709,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="425f6c96-429f-484f-969b-f607df711986">
@@ -732,6 +717,15 @@
     <TaxCatchAll xmlns="dffc3f26-5269-4005-8a8e-580fd4bf242e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,14 +748,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA0B51-7456-4883-901E-100C95177B36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028903B1-0B22-4BE6-8A73-043144867A27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -772,4 +758,12 @@
     <ds:schemaRef ds:uri="dffc3f26-5269-4005-8a8e-580fd4bf242e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA0B51-7456-4883-901E-100C95177B36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>